--- a/DOM_Banner/output/dept_banner/Hong S Lee_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Hong S Lee_2022.xlsx
@@ -828,9 +828,9 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>c(funder = "https://openalex.org/F4320306137", funder_display_name = "Bill and Melinda Gates Foundation", award_id = "OPP1212574", funder = "https://openalex.org/F4320320879", funder_display_name = "Deutsche Forschungsgemeinschaft", award_id = "404478562", funder = "https://openalex.org/F4320320879", funder_display_name = "Deutsche Forschungsgemeinschaft", award_id = "421356369", funder = "https://openalex.org/F4320320879", funder_display_name = "Deutsche Forschungsgemeinschaft", award_id = "13GW0493", 
-funder = "https://openalex.org/F4320320879", funder_display_name = "Deutsche Forschungsgemeinschaft", award_id = "446617142", funder = "https://openalex.org/F4320321114", funder_display_name = "Bundesministerium für Bildung und Forschung", award_id = "404478562", funder = "https://openalex.org/F4320321114", funder_display_name = "Bundesministerium für Bildung und Forschung", award_id = "421356369", funder = "https://openalex.org/F4320321114", funder_display_name = "Bundesministerium für Bildung und Forschung", 
-award_id = "13GW0493", funder = "https://openalex.org/F4320321114", funder_display_name = "Bundesministerium für Bildung und Forschung", award_id = "446617142", funder = "https://openalex.org/F4320332447", funder_display_name = "U.S. Army", award_id = "W911QY-20-R-0022", funder = "https://openalex.org/F4320334627", funder_display_name = "Engineering and Physical Sciences Research Council", award_id = "EP/R010242/1", funder = "https://openalex.org/F4320334627", funder_display_name = "Engineering and Physical Sciences Research Council", 
+          <t>c(funder = "https://openalex.org/F4320306137", funder_display_name = "Bill and Melinda Gates Foundation", award_id = "OPP1212574", funder = "https://openalex.org/F4320320879", funder_display_name = "Deutsche Forschungsgemeinschaft", award_id = "404478562", funder = "https://openalex.org/F4320320879", funder_display_name = "Deutsche Forschungsgemeinschaft", award_id = "446617142", funder = "https://openalex.org/F4320320879", funder_display_name = "Deutsche Forschungsgemeinschaft", award_id = "13GW0493", 
+funder = "https://openalex.org/F4320320879", funder_display_name = "Deutsche Forschungsgemeinschaft", award_id = "421356369", funder = "https://openalex.org/F4320321114", funder_display_name = "Bundesministerium für Bildung und Forschung", award_id = "404478562", funder = "https://openalex.org/F4320321114", funder_display_name = "Bundesministerium für Bildung und Forschung", award_id = "446617142", funder = "https://openalex.org/F4320321114", funder_display_name = "Bundesministerium für Bildung und Forschung", 
+award_id = "13GW0493", funder = "https://openalex.org/F4320321114", funder_display_name = "Bundesministerium für Bildung und Forschung", award_id = "421356369", funder = "https://openalex.org/F4320332447", funder_display_name = "U.S. Army", award_id = "W911QY-20-R-0022", funder = "https://openalex.org/F4320334627", funder_display_name = "Engineering and Physical Sciences Research Council", award_id = "EP/R010242/1", funder = "https://openalex.org/F4320334627", funder_display_name = "Engineering and Physical Sciences Research Council", 
 award_id = "EP/R511547/1", funder = "https://openalex.org/F4320334630", funder_display_name = "Economic and Social Research Council", award_id = "2453729", funder = "https://openalex.org/F4320335087", funder_display_name = "Innovate UK", award_id = "33486", funder = "https://openalex.org/F4320338337", funder_display_name = "H2020 Marie Skłodowska-Curie Actions", award_id = "101025390")</t>
         </is>
       </c>
@@ -884,7 +884,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W164591511", "https://openalex.org/W2968920050", "https://openalex.org/W1540139279", "https://openalex.org/W1567845959", "https://openalex.org/W2102301225", "https://openalex.org/W188937797", "https://openalex.org/W2386594175", "https://openalex.org/W2379171104", "https://openalex.org/W2484270531", "https://openalex.org/W622357916")</t>
+          <t>c("https://openalex.org/W164591511", "https://openalex.org/W2968920050", "https://openalex.org/W1540139279", "https://openalex.org/W1567845959", "https://openalex.org/W2102301225", "https://openalex.org/W188937797", "https://openalex.org/W2386594175", "https://openalex.org/W2379171104", "https://openalex.org/W1503780849", "https://openalex.org/W4254120733")</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2030976971", "https://openalex.org/W2442864109", "https://openalex.org/W2077866709", "https://openalex.org/W2022070251", "https://openalex.org/W3156691093", "https://openalex.org/W4231170676", "https://openalex.org/W2483216833", "https://openalex.org/W2093220150", "https://openalex.org/W4210796457", "https://openalex.org/W4310057547")</t>
+          <t>c("https://openalex.org/W2030976971", "https://openalex.org/W2442864109", "https://openalex.org/W2077866709", "https://openalex.org/W2093220150", "https://openalex.org/W4210796457", "https://openalex.org/W4310057547", "https://openalex.org/W4389265293", "https://openalex.org/W2074984374", "https://openalex.org/W3159231051", "https://openalex.org/W2022070251")</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Hong S Lee_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Hong S Lee_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">Center of Excellence for Advanced Materials and Manufacturing, King Abdulaziz City for Science and Technology, 11442 Riyadh, Saudi Arabia; Department of Bioengineering, Imperial College London, London SW7 2AZ, UK; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4294740815</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>PEDOT:PSS-modified cotton conductive thread for mass manufacturing of textile-based electrical wearable sensors by computerized embroidery</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Materials Today</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.mattod.2022.07.015</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.mattod.2022.07.015</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>BlakBear, Ltd, 7-8 Child’s Place, SW5 9RX London, United Kingdom; Imperial College London, Department of Bioengineering, Royal School of Mines, SW7 2AZ London, United Kingdom; Imperial College London, Department of Bioengineering, Royal School of Mines, SW7 2AZ London, United Kingdom; Imperial College London, Department of Bioengineering, Royal School of Mines, SW7 2AZ London, United Kingdom; FIT Freiburg Center for Interactive Materials and Bioinspired Technologies, University of Freiburg, Freiburg 79110, Germany; Imperial College London, Department of Bioengineering, Royal School of Mines, SW7 2AZ London, United Kingdom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4296635105</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Challenges and Opportunities for Printed Electrical Gas Sensors</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-09-22</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>ACS Sensors</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>American Chemical Society</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1021/acssensors.2c01086</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36131601</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1021/acssensors.2c01086</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,39 +626,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Department of Physics, Research Institute Physics and Chemistry, Jeonbuk National University, Jeonju 54896, Republic of Korea; Department of Physics, Research Institute Physics and Chemistry, Jeonbuk National University, Jeonju 54896, Republic of Korea; Department of Physics, Research Institute Physics and Chemistry, Jeonbuk National University, Jeonju 54896, Republic of Korea</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4229448005</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Energy spacing and sub-band modulation of Cu doped ZnSe quantum dots</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Journal of Alloys and Compounds</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jallcom.2022.165372</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jallcom.2022.165372</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,39 +713,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Bioengineering, Imperial College London, London, SW7 2AZ, United Kingdom.; Department of Bioengineering, Imperial College London, London, SW7 2AZ, United Kingdom.; Department of Bioengineering, Imperial College London, London, SW7 2AZ, United Kingdom.; Department of Bioengineering, Imperial College London, London, SW7 2AZ, United Kingdom.; Department of Bioengineering, Imperial College London, London, SW7 2AZ, United Kingdom.; Department of Bioengineering, Imperial College London, London, SW7 2AZ, United Kingdom.; Department of Bioengineering, Imperial College London, London, SW7 2AZ, United Kingdom.; Department of Bioengineering, Imperial College London, London, SW7 2AZ, United Kingdom.; Department of Bioengineering, Imperial College London, London, SW7 2AZ, United Kingdom.; Department of Bioengineering, Imperial College London, London, SW7 2AZ, United Kingdom.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283256956</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Bioinspired Stretchable Transducer for Wearable Continuous Monitoring of Respiratory Patterns in Humans and Animals</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-07-14</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Advanced Materials</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1002/adma.202203310</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35730340</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/adma.202203310</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,39 +800,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t xml:space="preserve">Department of Physics, Jeonbuk National University, Jeonju 54896, Republic of Korea; Institute of Advanced Composite Materials, Korea Institute of Science and Technology, Joellabuk-do 55324, Republic of Korea; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4293024116</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Dramatically enhanced ambient effects in a multi-layer MoS2 transistor with channel thickness near maximum depletion width</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-08-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Microelectronic Engineering</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.mee.2022.111868</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -815,35 +840,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.mee.2022.111868</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Department of Bioengineering Imperial College London  London SW7 2AZ UK; Department of Bioengineering Imperial College London  London SW7 2AZ UK; Department of Bioengineering Imperial College London  London SW7 2AZ UK; Department of Bioengineering Imperial College London  London SW7 2AZ UK; Department of Bioengineering Imperial College London  London SW7 2AZ UK; Department of Bioengineering Imperial College London  London SW7 2AZ UK; Department of Bioengineering Imperial College London  London SW7 2AZ UK; Department of Bioengineering Imperial College London  London SW7 2AZ UK; Department of Bioengineering Imperial College London  London SW7 2AZ UK; Department of Bioengineering Imperial College London  London SW7 2AZ UK</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4292209688</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Bioinspired Stretchable Transducer for Wearable Continuous Monitoring of Respiratory Patterns in Humans and Animals (Adv. Mater. 33/2022)</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-08-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Advanced Materials</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1002/adma.202270240</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/adma.202270240</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,39 +974,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Research Institute of Physics and Chemistry, Jeonbuk National University; Department of Chemistry, Research Institute of Physics and Chemistry, Jeonbuk National University, Jeonju, Republic of Korea; Graduate University of Science and Technology, Vietnam Academy of Science and Technology, 18 Hoang Quoc Viet, Caugiay, Hanoi, 100000, Vietnam; Department of Physics, Research Institute of Physics and Chemistry, Jeonbuk National University, Jeonju, 54896, Republic of Korea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4226037507</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Size-dependent energy spacing and surface defects of CdSe quantum dots in strong confinement regime</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-04-07</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Applied Nanoscience</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s13204-021-02310-8</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s13204-021-02310-8</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Department of Physics, Research Institute of Physics and Chemistry, Jeonbuk National University, Jeonju 54896, Republic of Korea; Department of Physics, Research Institute of Physics and Chemistry, Jeonbuk National University, Jeonju 54896, Republic of Korea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4311783008</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Enhancement of Optical Properties in CdSe Quantum Dots Using Z-type Ligands</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-11-15</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Applied Science and Convergence Technology</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Korean Vacuum Society</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.5757/asct.2022.31.6.153</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.5757/asct.2022.31.6.153</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Department of Bioengineering, Imperial College London, SW7 2AZ, United Kingdom; Department of Bioengineering, Imperial College London, SW7 2AZ, United Kingdom; Department of Bioengineering, Imperial College London, SW7 2AZ, United Kingdom; Department of Bioengineering, Imperial College London, SW7 2AZ, United Kingdom; Department of Bioengineering, Imperial College London, SW7 2AZ, United Kingdom; Department of Bioengineering, Imperial College London, SW7 2AZ, United Kingdom; Department of Bioengineering, Imperial College London, SW7 2AZ, United Kingdom; Department of Bioengineering, Imperial College London, SW7 2AZ, United Kingdom; Department of Bioengineering, Imperial College London, SW7 2AZ, United Kingdom; Department of Bioengineering, Imperial College London, SW7 2AZ, United Kingdom</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4210718948</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Bioinspired Stretchable Transducer for Wearable Continuous Monitoring of Respiratory Patterns in Humans and Animals</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-01-27</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>bioRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.01.24.477637</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2022.01.24.477637</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,39 +1235,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>1University of Arkansas for Medical Sciences, Little Rock, AR;; 2Samsung Medical Center, Sungkyunkwan University School of Medicine, Seoul, Republic of Korea;; 2Samsung Medical Center, Sungkyunkwan University School of Medicine, Seoul, Republic of Korea;; 3The Catholic University of Korea, Seoul, Republic of Korea;; 1University of Arkansas for Medical Sciences, Little Rock, AR;; 4University of Arizona, Banner University Medical Group, Tucson, AZ;; 5Mayo Clinic, Scottsdale, AZ;; 6Soongsil University, Seoul, Republic of Korea.; 2Samsung Medical Center, Sungkyunkwan University School of Medicine, Seoul, Republic of Korea;</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4282980794</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Abstract 3214: Risk of atrial fibrillation among women diagnosed with breast cancer</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-06-15</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Cancer Research</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>American Association for Cancer Research</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1538-7445.am2022-3214</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1225,35 +1275,40 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/1538-7445.am2022-3214</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,24 +1322,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308792075</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Sustained low income, income changes, and risk of all-cause mortality in individuals with type 2 diabetes: a nationwide population-based cohort study</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-11-11</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1292,50 +1347,55 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>https://doi.org/10.2337/figshare.21308409.v1</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>cc-by-nc-sa</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.2337/figshare.21308409.v1</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1349,24 +1409,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308792131</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Sustained low income, income changes, and risk of all-cause mortality in individuals with type 2 diabetes: a nationwide population-based cohort study</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-11-11</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1374,50 +1434,55 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>https://doi.org/10.2337/figshare.21308409</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>cc-by-nc-sa</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.2337/figshare.21308409</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1431,75 +1496,80 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Pohang University of Science and Technology; Pohang University of Science and Technology; Samsung Advanced Institute of Technology (SAIT), California Institute of Technology (Caltech); Korea Institute of Science and Technology; Jeonbuk National University; Sungkyunkwan University; Ulsan National Institute of Science and Technology; Pohang University of Science and Technology; Samsung Advanced Institute of Technology (SAIT), California Institute of Technology (Caltech); IBS; Jeonbuk National University; Jeonbuk National University; Samsung Advanced Institute of Technology; Pohang University of Science and Technology (POSTECH)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312077446</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>All-optical control of high-purity trions in nanoscale waveguide</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022-12-21</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Research Square (Research Square)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Research Square (United States)</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://doi.org/10.21203/rs.3.rs-2376451/v1</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://doi.org/10.21203/rs.3.rs-2376451/v1</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
